--- a/excel/mateus2.xlsx
+++ b/excel/mateus2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateu\OneDrive\Documentos\Spotify-Data-Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateu\OneDrive\Documentos\Spotify-Data-Analysis\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12102C5-ECF3-4D19-8E52-054B87A6DE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2717739-D23C-455E-9B59-A345481C7DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,7 +163,7 @@
     <t>Losing You</t>
   </si>
   <si>
-    <t>nome_da_faixa</t>
+    <t>name</t>
   </si>
 </sst>
 </file>
